--- a/xml_parser/new_one_authors_organisations.xlsx
+++ b/xml_parser/new_one_authors_organisations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>САФУ</t>
+          <t>Институт энергетической стратегии</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Еримин</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Еримин</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Landau Institute for Theoretical Physics|RAS</t>
+          <t>АО «ТомскНИПИнефть»</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Landau Institute for Theoretical Physics|RAS</t>
+          <t>АО «ТомскНИПИнефть»</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Landau Institute for Theoretical Physics|RAS</t>
+          <t>АО «ТомскНИПИнефть»</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Landau Institute for Theoretical Physics|RAS</t>
+          <t>АО «ТомскНИПИнефть»</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ВНИИОкеангеология</t>
+          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1682,16 +1682,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1707,16 +1707,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,22 +1726,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>548848</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1757,41 +1757,41 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>711489</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Сарданашвили</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>816046</t>
+          <t>548848</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Степанкина</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1807,16 +1807,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>711489</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Сарданашвили</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1832,41 +1832,41 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>816046</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Степанкина</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>842607</t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Лындин</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1882,41 +1882,41 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>842607</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Лындин</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1932,7 +1932,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1941,23 +1941,23 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Skibitskaya</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1966,32 +1966,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Kuzmin</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>120886</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Kuklina</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2007,16 +2007,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>120886</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Kuklina</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2026,22 +2026,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>140195</t>
+          <t>120886</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Rasputina</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2057,16 +2057,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>140195</t>
+          <t>120886</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Rasputina</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2076,22 +2076,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>770074</t>
+          <t>140195</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Bilichenko</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2107,16 +2107,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>770074</t>
+          <t>140195</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Bilichenko</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2126,22 +2126,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>770074</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Krasnoshtanova</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2157,16 +2157,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>770074</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Krasnoshtanova</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2176,22 +2176,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Bogdanov</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2207,16 +2207,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Bogdanov</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2226,22 +2226,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2257,16 +2257,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2276,38 +2276,38 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>167357</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Safonov</t>
+          <t>Petrov</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2316,32 +2316,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rodygina</t>
+          <t>Petrov</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>147756</t>
+          <t>167357</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Zakharova</t>
+          <t>Safonov</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2351,22 +2351,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>174752</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lavrinovich</t>
+          <t>Rodygina</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2376,22 +2376,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1076517</t>
+          <t>147756</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Emel'yanov</t>
+          <t>Zakharova</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2401,22 +2401,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58179</t>
+          <t>174752</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Novikov</t>
+          <t>Lavrinovich</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2426,22 +2426,22 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>528186</t>
+          <t>1076517</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Boldyrev</t>
+          <t>Emel'yanov</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2451,22 +2451,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>58179</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Novikov</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2476,97 +2476,97 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>168284</t>
+          <t>528186</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Самойлова</t>
+          <t>Boldyrev</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>720479</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Каушанский</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>720479</t>
+          <t>168284</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Каушанский</t>
+          <t>Самойлова</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1135782</t>
+          <t>720479</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Бакиров</t>
+          <t>Каушанский</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2582,16 +2582,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1135782</t>
+          <t>720479</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Бакиров</t>
+          <t>Каушанский</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2607,16 +2607,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>1135782</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Бакиров</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2632,16 +2632,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>1135782</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Бакиров</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2657,16 +2657,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>991650</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2682,66 +2682,66 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>991650</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>132</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>523822</t>
+          <t>69927</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Гогоненков</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>59800</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Гулиев</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2751,22 +2751,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>59816</t>
+          <t>523822</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Гогоненков</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2776,13 +2776,13 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Куандыков</t>
+          <t>Гулиев</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2801,22 +2801,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>69386</t>
+          <t>59816</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Милетенко</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2826,22 +2826,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>218196</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Куандыков</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2851,22 +2851,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>69386</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Федонкин</t>
+          <t>Милетенко</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>924651</t>
+          <t>218196</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Гельфгат</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>924651</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Гельфгат</t>
+          <t>Федонкин</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2932,16 +2932,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>925717</t>
+          <t>924651</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Гельфгат</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2957,16 +2957,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>925717</t>
+          <t>924651</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Гельфгат</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2976,22 +2976,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>925717</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3007,32 +3007,32 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>925717</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>11374</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>САФУ</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3046,68 +3046,68 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>11374</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Институт энергетической стратегии</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11374</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>САФУ</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3121,77 +3121,77 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11374</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>Институт энергетической стратегии</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3207,7 +3207,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3216,48 +3216,48 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Пахомов</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Пахомов</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Чудин</t>
+          <t>Пахомов</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3282,7 +3282,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Чудин</t>
+          <t>Пахомов</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3301,13 +3301,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Дедученко</t>
+          <t>Чудин</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3332,41 +3332,41 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Махутов</t>
+          <t>Чудин</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Дедученко</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3382,82 +3382,82 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>70016</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>Махутов</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>484931</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Соловьев</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>70016</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Соловьев</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3466,32 +3466,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Василенко</t>
+          <t>Соловьев</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>893978</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ершов</t>
+          <t>Соловьев</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3507,16 +3507,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Куликов</t>
+          <t>Василенко</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3532,16 +3532,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>893978</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Сурначёв</t>
+          <t>Ершов</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3557,16 +3557,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>331900</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Индрупский</t>
+          <t>Куликов</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3582,16 +3582,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>1180298</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Сурначёв</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3607,16 +3607,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>331900</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Индрупский</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3632,16 +3632,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>820348</t>
+          <t>778517</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3657,16 +3657,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>842888</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Шулейкин</t>
+          <t>Chigarev</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3682,16 +3682,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>820348</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3707,66 +3707,66 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>842888</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Шулейкин</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>62552</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3782,66 +3782,66 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>656521</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Лесин</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>982</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>968113</t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Утопленников</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>982</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1176378</t>
+          <t>656521</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Драбкина</t>
+          <t>Лесин</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3857,16 +3857,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>968113</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Утопленников</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3882,16 +3882,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>1176378</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Драбкина</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3907,7 +3907,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Шелепов</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3932,32 +3932,32 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>АО «ТомскНИПИнефть»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Шелепов</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3982,7 +3982,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Pikina</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4001,13 +4001,13 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>АО «ТомскНИПИнефть»</t>
+          <t>Landau Institute for Theoretical Physics|RAS</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Pikina</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4032,7 +4032,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Kats</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4051,13 +4051,13 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>АО «ТомскНИПИнефть»</t>
+          <t>Landau Institute for Theoretical Physics|RAS</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Kats</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4082,7 +4082,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Lebedev</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4101,13 +4101,13 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>АО «ТомскНИПИнефть»</t>
+          <t>Landau Institute for Theoretical Physics|RAS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Lebedev</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4132,91 +4132,91 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>529222</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Якубсон</t>
+          <t>Muratov</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>870</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Landau Institute for Theoretical Physics|RAS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>841215</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Телегина</t>
+          <t>Muratov</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>696074</t>
+          <t>529222</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Халова</t>
+          <t>Якубсон</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>930998</t>
+          <t>841215</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Штопаков</t>
+          <t>Телегина</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4226,22 +4226,22 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>696074</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Богомолов</t>
+          <t>Халова</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4251,22 +4251,22 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>841206</t>
+          <t>930998</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Студеникина</t>
+          <t>Штопаков</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4276,97 +4276,97 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>138669</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Богомолов</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>608438</t>
+          <t>841206</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Кузин</t>
+          <t>Студеникина</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>138669</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>608438</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Кузин</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4382,16 +4382,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>64377</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4401,22 +4401,22 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>64377</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4432,41 +4432,41 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>64377</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>64377</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4482,7 +4482,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4507,7 +4507,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4532,16 +4532,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4557,41 +4557,41 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1073107</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4607,16 +4607,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1073107</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4626,72 +4626,72 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1156414</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Макаренко</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>1156414</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Макаренко</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4707,66 +4707,66 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4782,16 +4782,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4807,7 +4807,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4816,48 +4816,48 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Грунис</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Давыденко</t>
+          <t>Грунис</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4876,13 +4876,13 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4901,22 +4901,22 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>534341</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Сотникова</t>
+          <t>Давыденко</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4926,22 +4926,22 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1199525</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Лукова</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4951,22 +4951,22 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1160650</t>
+          <t>534341</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Сотникова</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4976,97 +4976,97 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>324542</t>
+          <t>1199525</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Zakirov</t>
+          <t>Лукова</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>971910</t>
+          <t>1160650</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Бродт</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Zakirov</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>971910</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Бродт</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5076,22 +5076,22 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>1045116</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5101,22 +5101,22 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>321532</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Жеребятьева</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5126,72 +5126,72 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>588413</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>655056</t>
+          <t>321532</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Жеребятьева</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>588413</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5207,16 +5207,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>655056</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5241,32 +5241,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>926259</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Бороздин</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5282,16 +5282,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>926259</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Бороздин</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5301,22 +5301,22 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>926259</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Соколова</t>
+          <t>Бороздин</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5332,41 +5332,41 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>60758</t>
+          <t>926259</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Бороздин</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>598915</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>КРЮЧКОВ</t>
+          <t>Соколова</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5382,16 +5382,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>733450</t>
+          <t>60758</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>КРЮЧКОВ</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5407,16 +5407,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>598915</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ЮСИФОВ</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5432,16 +5432,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>733450</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ЧЕРНЫШОВ</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5457,16 +5457,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>761852</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ЕРОФЕЕВА</t>
+          <t>Юсифов</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5482,16 +5482,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5507,16 +5507,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>761852</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Ерофеева</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5532,16 +5532,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1090050</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5557,7 +5557,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5566,23 +5566,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5607,41 +5607,41 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>607750</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Семигласов</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>674140</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5657,16 +5657,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>909288</t>
+          <t>607750</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Марутян</t>
+          <t>Семигласов</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5682,16 +5682,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>829491</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Доманова</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5707,16 +5707,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>908621</t>
+          <t>909288</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Пуго</t>
+          <t>Марутян</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5732,41 +5732,41 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>345331</t>
+          <t>829491</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Доманова</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>345331</t>
+          <t>908621</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Пуго</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5782,16 +5782,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>345331</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5801,22 +5801,22 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>345331</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5832,16 +5832,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>926031</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Пономаренко</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5851,22 +5851,22 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>926031</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Пономаренко</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5882,16 +5882,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>926031</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Зарипова</t>
+          <t>Пономаренко</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5901,22 +5901,22 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>926031</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Зарипова</t>
+          <t>Пономаренко</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5932,7 +5932,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -5941,23 +5941,23 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Космачева</t>
+          <t>Зарипова</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>14552</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Пермский национальный исследовательский политехнический университет</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -5966,23 +5966,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Воробьева</t>
+          <t>Зарипова</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>14552</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Пермский национальный исследовательский политехнический университет</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Рыбаков</t>
+          <t>Космачева</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6001,22 +6001,22 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Пермский национальный исследовательский политехнический университет</t>
+          <t>ООО «Газпромнефть НТЦ»</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>852301</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Остапчук</t>
+          <t>Воробьева</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6026,13 +6026,13 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Пермский национальный исследовательский политехнический университет</t>
+          <t>ООО «Газпромнефть НТЦ»</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6041,48 +6041,48 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Рыбаков</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>14552</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО «Газпромнефть НТЦ»</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>852301</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Остапчук</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>14552</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО «Газпромнефть НТЦ»</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6091,107 +6091,107 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Горева</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>979172</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Афанасьева</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>168284</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Самойлова</t>
+          <t>Горева</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>799191</t>
+          <t>979172</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Пятибратов</t>
+          <t>Афанасьева</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>799191</t>
+          <t>168284</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Пятибратов</t>
+          <t>Самойлова</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6201,72 +6201,72 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>251756</t>
+          <t>799191</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Пятибратов</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>799191</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Дайзель</t>
+          <t>Пятибратов</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>139213</t>
+          <t>251756</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Кудрявцев</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6276,13 +6276,13 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Закирова</t>
+          <t>Дайзель</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6301,72 +6301,72 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>529321</t>
+          <t>139213</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Кудрявцев</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>819133</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Закирова</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6382,16 +6382,16 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1198013</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Муминов</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6407,16 +6407,16 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6432,16 +6432,16 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>743652</t>
+          <t>1198013</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Муминов</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6457,7 +6457,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Щукин</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6482,16 +6482,16 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>743652</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6507,7 +6507,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Щукин</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6532,16 +6532,16 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6557,7 +6557,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6566,23 +6566,23 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>ВНИИОкеангеология</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6591,82 +6591,82 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>ВНИИОкеангеология</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>979019</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Лобжанидзе</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6676,22 +6676,22 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>979019</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Лобжанидзе</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6707,66 +6707,66 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>979019</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Оганов</t>
+          <t>Лобжанидзе</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>979019</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Магомедгаджиева</t>
+          <t>Лобжанидзе</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>752159</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Дзюбло</t>
+          <t>Оганов</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6782,16 +6782,16 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>1067241</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Магомедгаджиева</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6807,57 +6807,57 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>752159</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>БОГОЯВЛЕНСКИЙ</t>
+          <t>Дзюбло</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>1192730</t>
+          <t>1067241</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -6871,27 +6871,27 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>1192730</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6907,32 +6907,32 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Елагин</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -6946,18 +6946,18 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -6966,23 +6966,23 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Агзамов</t>
+          <t>Елагин</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -6996,77 +6996,77 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Агзамов</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>1090050</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>807087</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Гладких</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7082,16 +7082,16 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>594065</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Хитров</t>
+          <t>Гладких</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7107,16 +7107,16 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1108922</t>
+          <t>594065</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Данилова</t>
+          <t>Хитров</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7132,16 +7132,16 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1113614</t>
+          <t>1108922</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Коновалова</t>
+          <t>Данилова</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7157,16 +7157,16 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>830581</t>
+          <t>1113614</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Попова</t>
+          <t>Коновалова</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7182,16 +7182,16 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>830581</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Попова</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7207,16 +7207,16 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Chernyshov</t>
+          <t>Popov</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7232,16 +7232,16 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>807087</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Gladkikh</t>
+          <t>Chernyshov</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7257,41 +7257,41 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>138669</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Gladkikh</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>996419</t>
+          <t>138669</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Рыбальченко</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7301,22 +7301,22 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>382667</t>
+          <t>996419</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Меркулов</t>
+          <t>Рыбальченко</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7326,47 +7326,47 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t>382667</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Меркулов</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7376,22 +7376,22 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7401,22 +7401,22 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7426,38 +7426,38 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -7471,18 +7471,18 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -7496,18 +7496,18 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -7516,23 +7516,23 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -7546,18 +7546,18 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -7571,18 +7571,18 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7591,23 +7591,23 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Максимов</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Антонов</t>
+          <t>Максимов</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7632,7 +7632,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Алиева</t>
+          <t>Антонов</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7657,7 +7657,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Хаматов</t>
+          <t>Алиева</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7682,7 +7682,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Беляев</t>
+          <t>Хаматов</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7707,7 +7707,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7721,18 +7721,18 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7741,23 +7741,23 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Епишов</t>
+          <t>Беляев</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -7771,52 +7771,52 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>524537</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Zimina</t>
+          <t>Епишов</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>956325</t>
+          <t>524537</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Tsymbarovich</t>
+          <t>Zimina</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7832,41 +7832,41 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>811069</t>
+          <t>956325</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Tsymbarovich</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>811069</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7882,16 +7882,16 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Бухарин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7907,7 +7907,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7921,18 +7921,18 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7941,23 +7941,23 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Остапенко</t>
+          <t>Бухарин</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -7971,18 +7971,18 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -7991,23 +7991,23 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Богданов</t>
+          <t>Остапенко</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Путина</t>
+          <t>Богданов</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8032,7 +8032,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Громыко</t>
+          <t>Путина</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8057,41 +8057,41 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>466464</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Хисамов</t>
+          <t>Громыко</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>674140</t>
+          <t>466464</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Хисамов</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8101,22 +8101,22 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8126,22 +8126,22 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>697348</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Базаревская</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8151,22 +8151,22 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>588398</t>
+          <t>697348</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Навроцкий</t>
+          <t>Базаревская</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8176,22 +8176,22 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>167593</t>
+          <t>588398</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Никулин</t>
+          <t>Навроцкий</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8201,47 +8201,47 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>608396</t>
+          <t>167593</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Аникеев</t>
+          <t>Никулин</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>324542</t>
+          <t>608396</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Закиров</t>
+          <t>Аникеев</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8257,16 +8257,16 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>1177993</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Аникеева</t>
+          <t>Закиров</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8282,66 +8282,66 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1177993</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Егоров</t>
+          <t>Аникеева</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>1127117</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Гарифуллина</t>
+          <t>Егоров</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>7655</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1127117</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Халиуллин</t>
+          <t>Гарифуллина</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8351,22 +8351,22 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>331900</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Индрупский</t>
+          <t>Халиуллин</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8376,22 +8376,22 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1154710</t>
+          <t>331900</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Валиуллин</t>
+          <t>Индрупский</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8401,22 +8401,22 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1016841</t>
+          <t>1154710</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Залятдинов</t>
+          <t>Валиуллин</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8426,22 +8426,22 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>1112796</t>
+          <t>1016841</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Бурлуцкий</t>
+          <t>Залятдинов</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8451,22 +8451,22 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1112796</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Садреева</t>
+          <t>Бурлуцкий</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8476,22 +8476,22 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>1149161</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Афлятунов</t>
+          <t>Садреева</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8501,22 +8501,22 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1149161</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Кашапов</t>
+          <t>Афлятунов</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8526,47 +8526,47 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>987645</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Ющенко</t>
+          <t>Кашапов</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>7655</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>546858</t>
+          <t>987645</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Брусиловский</t>
+          <t>Ющенко</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8582,41 +8582,41 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>546858</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>ЧЕРНЫШОВ</t>
+          <t>Брусиловский</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>ПОПОВ</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8626,22 +8626,22 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>890229</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>ВАРУШКИН</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8651,22 +8651,22 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>646094</t>
+          <t>890229</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>МЕЛЕХИН</t>
+          <t>Варушкин</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8676,22 +8676,22 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t>646094</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>КРИВОЩЕКОВ</t>
+          <t>Мелехин</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8701,22 +8701,22 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>РЕН</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8726,13 +8726,13 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -8741,23 +8741,23 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Рен</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>848</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>Пермский национальный исследовательский политехнический университет</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -8771,27 +8771,27 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8807,32 +8807,32 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>655381</t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Сечина</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8846,77 +8846,77 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t>655381</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Сечина</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1090050</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Маврикиди</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>САФУ</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>960159</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Хорьков</t>
+          <t>Маврикиди</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -8932,16 +8932,16 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>1051084</t>
+          <t>960159</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Зинатуллина</t>
+          <t>Хорьков</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8957,32 +8957,32 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>103971</t>
+          <t>1051084</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Зинатуллина</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -8996,43 +8996,43 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>923755</t>
+          <t>103971</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -9046,27 +9046,27 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>654135</t>
+          <t>923755</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Риле</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9082,16 +9082,16 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>565541</t>
+          <t>654135</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Шиловский</t>
+          <t>Риле</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9107,41 +9107,41 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>1006242</t>
+          <t>565541</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Ибрагимов</t>
+          <t>Шиловский</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>7655</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>612772</t>
+          <t>1006242</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Дроздов</t>
+          <t>Ибрагимов</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9151,22 +9151,22 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>612772</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Климов</t>
+          <t>Дроздов</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9176,13 +9176,13 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -9196,27 +9196,27 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>7655</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Альметьевский государственный нефтяной институт</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>612772</t>
+          <t>710603</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Дроздов</t>
+          <t>Климов</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9232,41 +9232,41 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>612772</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Дроздов</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9276,22 +9276,22 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1090961</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -9301,47 +9301,47 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>534346</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>59235</t>
+          <t>534346</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Любушин</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9351,13 +9351,13 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -9371,27 +9371,27 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>59235</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Федоров</t>
+          <t>Любушин</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9407,16 +9407,16 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>785395</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Печкина</t>
+          <t>Федоров</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9432,16 +9432,16 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>785395</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Мичугин</t>
+          <t>Печкина</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9457,7 +9457,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Куклина</t>
+          <t>Мичугин</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9482,16 +9482,16 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>251756</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Куклина</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9507,16 +9507,16 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>251756</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Федаш</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -9532,7 +9532,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Каргина</t>
+          <t>Федаш</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9557,7 +9557,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -9566,32 +9566,32 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Каргина</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>783485</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Патина</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9601,22 +9601,22 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>59255</t>
+          <t>783485</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Гарагаш</t>
+          <t>Патина</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9626,22 +9626,22 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>588398</t>
+          <t>59255</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Навроцкий</t>
+          <t>Гарагаш</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9651,22 +9651,22 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>588398</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Соин</t>
+          <t>Навроцкий</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9676,13 +9676,13 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Суслов</t>
+          <t>Соин</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9701,13 +9701,13 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Гумерова</t>
+          <t>Суслов</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -9726,13 +9726,13 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -9741,23 +9741,23 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Гумерова</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9776,47 +9776,47 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>119121</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Демченко</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>502793</t>
+          <t>119121</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Демченко</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -9826,38 +9826,38 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>502793</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Дунаева</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Савченко</t>
+          <t>Дунаева</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -9876,13 +9876,13 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Толмачева</t>
+          <t>Савченко</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>54011</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Киенская</t>
+          <t>Толмачева</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -9926,22 +9926,22 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>54011</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Курьяков</t>
+          <t>Киенская</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -9951,22 +9951,22 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Паэглит</t>
+          <t>Курьяков</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -9976,72 +9976,72 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>1134023</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Паэглит</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>364</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Сурначев</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>396398</t>
+          <t>1180298</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Сурначев</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10057,16 +10057,16 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>1084975</t>
+          <t>396398</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10082,16 +10082,16 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>332465</t>
+          <t>1084975</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Исаева</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10107,16 +10107,16 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>830087</t>
+          <t>332465</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Гурова</t>
+          <t>Исаева</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10132,16 +10132,16 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>830087</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Курьяков</t>
+          <t>Гурова</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10157,16 +10157,16 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>166698</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Жилина</t>
+          <t>Курьяков</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10182,16 +10182,16 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>174981</t>
+          <t>166698</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Жилина</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10207,16 +10207,16 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>971965</t>
+          <t>174981</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -10232,16 +10232,16 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>881447</t>
+          <t>971965</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Юсупова</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -10257,32 +10257,32 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>881447</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Киль</t>
+          <t>Юсупова</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Полудеткина</t>
+          <t>Киль</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -10301,22 +10301,22 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>ВНИИОкеангеология</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>940368</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Токарев</t>
+          <t>Полудеткина</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -10326,22 +10326,22 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>ВНИИОкеангеология</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>65352</t>
+          <t>940368</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Рыбалко</t>
+          <t>Токарев</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -10351,22 +10351,22 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>ВНИИОкеангеология</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>1075365</t>
+          <t>65352</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Юмашева</t>
+          <t>Рыбалко</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -10376,13 +10376,13 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>ВНИИОкеангеология</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -10396,27 +10396,27 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ВНИИОкеангеология</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1075365</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Полудеткина</t>
+          <t>Юмашева</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -10432,16 +10432,16 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>940368</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Токарев</t>
+          <t>Полудеткина</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -10457,16 +10457,16 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>65352</t>
+          <t>940368</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Рыбалко</t>
+          <t>Токарев</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -10482,16 +10482,16 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>65352</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Киль</t>
+          <t>Рыбалко</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -10507,7 +10507,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -10516,32 +10516,32 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Киль</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>1160650</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -10551,22 +10551,22 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>1195322</t>
+          <t>1160650</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -10576,47 +10576,47 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>1003999</t>
+          <t>1195322</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Алали</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>Ухтинский государственный технический университет</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>460222</t>
+          <t>1003999</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Федорова</t>
+          <t>Алали</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -10626,13 +10626,13 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -10646,43 +10646,43 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>460222</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Левдик</t>
+          <t>Федорова</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -10696,18 +10696,18 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -10716,23 +10716,23 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Могучева</t>
+          <t>Левдик</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -10746,43 +10746,43 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>926628</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Сребродольская</t>
+          <t>Могучева</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -10796,43 +10796,43 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>926628</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Сребродольская</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -10841,23 +10841,23 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Гордеева</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -10871,18 +10871,18 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -10891,23 +10891,23 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Петухова</t>
+          <t>Гордеева</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -10921,52 +10921,52 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>1198013</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Муминов</t>
+          <t>Петухова</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>1198013</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Муминов</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -10976,38 +10976,38 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
+          <t>ООО "Газпром ВНИИГАЗ"</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Селенгинский</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО "Газпром ВНИИГАЗ"</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -11021,77 +11021,77 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>752159</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Дзюбло</t>
+          <t>Селенгинский</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>752159</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Fedorov</t>
+          <t>Дзюбло</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Butakov</t>
+          <t>Fedorov</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11107,41 +11107,41 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>1089985</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Выломов</t>
+          <t>Butakov</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1089985</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Шульгин</t>
+          <t>Выломов</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -11151,22 +11151,22 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+          <t>ООО «Тюменский нефтяной научный центр»</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>1181957</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Шакиров</t>
+          <t>Шульгин</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -11176,22 +11176,22 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+          <t>ООО «Тюменский нефтяной научный центр»</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1181957</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Снохин</t>
+          <t>Шакиров</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -11201,13 +11201,13 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+          <t>ООО «Тюменский нефтяной научный центр»</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -11216,23 +11216,23 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Чигарёв</t>
+          <t>Снохин</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>4493</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>ООО «Тюменский нефтяной научный центр»</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -11241,37 +11241,37 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Мо</t>
+          <t>Чигарёв</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>60229</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Орешкин</t>
+          <t>Мо</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -11282,16 +11282,16 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60229</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Хафизов</t>
+          <t>Орешкин</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -11301,22 +11301,22 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>64859</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Хафизов</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -11326,38 +11326,38 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>64859</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Геологический институт РАН</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Роде</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -11382,24 +11382,49 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Роде</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>ИПНГ РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
         <v>811</v>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>1134643</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C440" t="inlineStr">
         <is>
           <t>Самохвалов</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr">
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
         <is>
           <t>ИПНГ РАН</t>
         </is>
